--- a/workingfolder/python/tables/SE_Est_sv.xlsx
+++ b/workingfolder/python/tables/SE_Est_sv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>SE: $\hat\lambda_{SPF}$(Q)</t>
   </si>
@@ -389,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -405,86 +405,77 @@
       <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
-        <v>3</v>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
       <c r="E2">
-        <v>0.23</v>
-      </c>
-      <c r="F2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="D3">
+        <v>0.12</v>
+      </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>0.14</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
         <v>0.12</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>0.12</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>0.12</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
         <v>5</v>
       </c>
+      <c r="D6">
+        <v>0.14</v>
+      </c>
       <c r="E6">
-        <v>0.12</v>
-      </c>
-      <c r="F6">
         <v>1</v>
       </c>
     </row>

--- a/workingfolder/python/tables/SE_Est_sv.xlsx
+++ b/workingfolder/python/tables/SE_Est_sv.xlsx
@@ -14,24 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>SE: $\hat\lambda_{SPF}$(Q)</t>
   </si>
   <si>
     <t>SE: $\hat\lambda_{SCE}$(M)</t>
-  </si>
-  <si>
-    <t>Forecast</t>
-  </si>
-  <si>
-    <t>FE</t>
-  </si>
-  <si>
-    <t>Disg</t>
-  </si>
-  <si>
-    <t>Var</t>
   </si>
 </sst>
 </file>
@@ -389,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,73 +400,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>0.1</v>
-      </c>
-      <c r="E2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>0.12</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>0.14</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>0.12</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>0.14</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/workingfolder/python/tables/SE_Est_sv.xlsx
+++ b/workingfolder/python/tables/SE_Est_sv.xlsx
@@ -1,32 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Myworld/Dropbox/ExpProject/workingfolder/python/tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD5FA50-9894-FD48-883B-1FEAE46BFD05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="9500" yWindow="3200" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>SE: $\hat\lambda_{SPF}$(Q)</t>
   </si>
   <si>
+    <t>SE: $\gamma$</t>
+  </si>
+  <si>
     <t>SE: $\hat\lambda_{SCE}$(M)</t>
+  </si>
+  <si>
+    <t>DisgATV</t>
+  </si>
+  <si>
+    <t>FEATV</t>
+  </si>
+  <si>
+    <t>Var</t>
+  </si>
+  <si>
+    <t>DisgVar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +110,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -135,7 +164,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,9 +196,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,6 +248,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -376,14 +441,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -393,11 +460,113 @@
       <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>0.3</v>
+      </c>
+      <c r="F2">
+        <v>0.46</v>
+      </c>
+      <c r="G2">
+        <v>2.52</v>
+      </c>
+      <c r="H2">
+        <v>0.09</v>
+      </c>
+      <c r="I2">
+        <v>0.09</v>
+      </c>
+      <c r="J2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>0.3</v>
+      </c>
+      <c r="F3">
+        <v>0.46</v>
+      </c>
+      <c r="G3">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+      <c r="F4">
+        <v>0.46</v>
+      </c>
+      <c r="G4">
+        <v>1.26</v>
+      </c>
+      <c r="H4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>
